--- a/Day-05.04/Функции с проверкой условий.xlsx
+++ b/Day-05.04/Функции с проверкой условий.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-05.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835478DE-B5F8-4F7C-B7B3-82B3DECA2A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB2938-6C00-43B1-8F29-936D8EDFFDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="2" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="4" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
   </bookViews>
   <sheets>
     <sheet name="условия " sheetId="1" r:id="rId1"/>
     <sheet name="счет" sheetId="12" r:id="rId2"/>
     <sheet name="если" sheetId="13" r:id="rId3"/>
+    <sheet name="проверка нескольких условий" sheetId="14" r:id="rId4"/>
+    <sheet name="проверка неск усл + впр" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>=3 &gt; 5</t>
   </si>
@@ -120,6 +122,63 @@
   </si>
   <si>
     <t>Вашингтон</t>
+  </si>
+  <si>
+    <t>Если значение отдельного штата больше среднего по штатам в этом месяце, то 'Высокая', иначе 'Низкая'</t>
+  </si>
+  <si>
+    <t>среднее значение</t>
+  </si>
+  <si>
+    <t>Тип автомобиля</t>
+  </si>
+  <si>
+    <t>Особенности</t>
+  </si>
+  <si>
+    <t>Легковой</t>
+  </si>
+  <si>
+    <t>2-х дверный</t>
+  </si>
+  <si>
+    <t>4-х дверный</t>
+  </si>
+  <si>
+    <t>Грузовик</t>
+  </si>
+  <si>
+    <t>Есть кузов</t>
+  </si>
+  <si>
+    <t>Нет кузова</t>
+  </si>
+  <si>
+    <t>Какое авто:</t>
+  </si>
+  <si>
+    <t>Купе</t>
+  </si>
+  <si>
+    <t>Седан</t>
+  </si>
+  <si>
+    <t>Пикап</t>
+  </si>
+  <si>
+    <t>Трейлер</t>
+  </si>
+  <si>
+    <t>без литералов</t>
+  </si>
+  <si>
+    <t>идентификатор</t>
+  </si>
+  <si>
+    <t>штат</t>
+  </si>
+  <si>
+    <t>расходы</t>
   </si>
 </sst>
 </file>
@@ -131,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +247,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -213,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -601,6 +667,88 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -612,7 +760,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,13 +877,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,6 +884,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1253,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,12 +1457,12 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="H10" s="33">
         <f>COUNTBLANK(C4:F4) + COUNTBLANK(C7:F7)</f>
         <v>4</v>
@@ -1368,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1B666-B566-4121-BD8A-52A4E436E8BA}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,234 +1568,847 @@
     <col min="3" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="45">
         <v>41517</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="45">
         <v>41547</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="45">
         <v>41578</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="45">
         <v>41608</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="45">
         <v>41639</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="45">
         <v>41670</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="47">
         <v>3.919</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="47">
         <v>3.9889999999999999</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="47">
         <v>3.8290000000000002</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="47">
         <v>3.641</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="47">
         <v>3.6419999999999999</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="48">
         <v>3.6659999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="50">
         <v>3.569</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="50">
         <v>3.5819999999999999</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="50">
         <v>3.41</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="50">
         <v>3.2309999999999999</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="50">
         <v>3.1219999999999999</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="51">
         <v>3.238</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="50">
         <v>3.6139999999999999</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="50">
         <v>3.5579999999999998</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="50">
         <v>3.3879999999999999</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="50">
         <v>3.3769999999999998</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="50">
         <v>3.516</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="51">
         <v>3.4860000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="50">
         <v>3.7610000000000001</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="50">
         <v>3.7029999999999998</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="50">
         <v>3.5179999999999998</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="50">
         <v>3.419</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="50">
         <v>3.52</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="51">
         <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="50">
         <v>3.577</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="50">
         <v>3.54</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="50">
         <v>3.3180000000000001</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="50">
         <v>3.1429999999999998</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="50">
         <v>3.113</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="51">
         <v>3.2719999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="50">
         <v>3.9329999999999998</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="50">
         <v>3.879</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="50">
         <v>3.7</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="50">
         <v>3.633</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="50">
         <v>3.7360000000000002</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="51">
         <v>3.734</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="50">
         <v>3.5419999999999998</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="50">
         <v>3.512</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="50">
         <v>3.3170000000000002</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="50">
         <v>3.2309999999999999</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="50">
         <v>3.2810000000000001</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="51">
         <v>3.3359999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="50">
         <v>3.5089999999999999</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="50">
         <v>3.383</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="50">
         <v>3.18</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="50">
         <v>3.1040000000000001</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="50">
         <v>3.1709999999999998</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="51">
         <v>3.1869999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="50">
         <v>3.855</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="50">
         <v>3.7669999999999999</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="50">
         <v>3.5670000000000002</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="50">
         <v>3.3730000000000002</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="50">
         <v>3.3479999999999999</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="51">
         <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="56">
+        <f>AVERAGE(C3:C11)</f>
+        <v>3.6976666666666662</v>
+      </c>
+      <c r="D12" s="57">
+        <f t="shared" ref="D12:H12" si="0">AVERAGE(D3:D11)</f>
+        <v>3.6570000000000005</v>
+      </c>
+      <c r="E12" s="57">
+        <f t="shared" si="0"/>
+        <v>3.4696666666666669</v>
+      </c>
+      <c r="F12" s="57">
+        <f t="shared" si="0"/>
+        <v>3.350222222222222</v>
+      </c>
+      <c r="G12" s="57">
+        <f t="shared" si="0"/>
+        <v>3.3832222222222219</v>
+      </c>
+      <c r="H12" s="58">
+        <f t="shared" si="0"/>
+        <v>3.4235555555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="59" t="str">
+        <f>IF(C3&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Высокая</v>
+      </c>
+      <c r="D14" s="59" t="str">
+        <f t="shared" ref="D14:H14" si="1">IF(D3&gt;AVERAGE(D$3:D$11),"Высокая","Низкая")</f>
+        <v>Высокая</v>
+      </c>
+      <c r="E14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>Высокая</v>
+      </c>
+      <c r="F14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>Высокая</v>
+      </c>
+      <c r="G14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>Высокая</v>
+      </c>
+      <c r="H14" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>Высокая</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="59" t="str">
+        <f t="shared" ref="C15:H15" si="2">IF(C4&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Низкая</v>
+      </c>
+      <c r="D15" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>Низкая</v>
+      </c>
+      <c r="E15" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>Низкая</v>
+      </c>
+      <c r="F15" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>Низкая</v>
+      </c>
+      <c r="G15" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>Низкая</v>
+      </c>
+      <c r="H15" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>Низкая</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="59" t="str">
+        <f t="shared" ref="C16:H16" si="3">IF(C5&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Низкая</v>
+      </c>
+      <c r="D16" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Низкая</v>
+      </c>
+      <c r="E16" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Низкая</v>
+      </c>
+      <c r="F16" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Высокая</v>
+      </c>
+      <c r="G16" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Высокая</v>
+      </c>
+      <c r="H16" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Высокая</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="59" t="str">
+        <f t="shared" ref="C17:H17" si="4">IF(C6&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Высокая</v>
+      </c>
+      <c r="D17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>Высокая</v>
+      </c>
+      <c r="E17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>Высокая</v>
+      </c>
+      <c r="F17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>Высокая</v>
+      </c>
+      <c r="G17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>Высокая</v>
+      </c>
+      <c r="H17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>Высокая</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="59" t="str">
+        <f t="shared" ref="C18:H18" si="5">IF(C7&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Низкая</v>
+      </c>
+      <c r="D18" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Низкая</v>
+      </c>
+      <c r="E18" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Низкая</v>
+      </c>
+      <c r="F18" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Низкая</v>
+      </c>
+      <c r="G18" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Низкая</v>
+      </c>
+      <c r="H18" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Низкая</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="59" t="str">
+        <f t="shared" ref="C19:H19" si="6">IF(C8&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Высокая</v>
+      </c>
+      <c r="D19" s="59" t="str">
+        <f t="shared" si="6"/>
+        <v>Высокая</v>
+      </c>
+      <c r="E19" s="59" t="str">
+        <f t="shared" si="6"/>
+        <v>Высокая</v>
+      </c>
+      <c r="F19" s="59" t="str">
+        <f t="shared" si="6"/>
+        <v>Высокая</v>
+      </c>
+      <c r="G19" s="59" t="str">
+        <f t="shared" si="6"/>
+        <v>Высокая</v>
+      </c>
+      <c r="H19" s="59" t="str">
+        <f t="shared" si="6"/>
+        <v>Высокая</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="59" t="str">
+        <f t="shared" ref="C20:H20" si="7">IF(C9&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Низкая</v>
+      </c>
+      <c r="D20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Низкая</v>
+      </c>
+      <c r="E20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Низкая</v>
+      </c>
+      <c r="F20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Низкая</v>
+      </c>
+      <c r="G20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Низкая</v>
+      </c>
+      <c r="H20" s="59" t="str">
+        <f t="shared" si="7"/>
+        <v>Низкая</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="59" t="str">
+        <f t="shared" ref="C21:H21" si="8">IF(C10&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Низкая</v>
+      </c>
+      <c r="D21" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>Низкая</v>
+      </c>
+      <c r="E21" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>Низкая</v>
+      </c>
+      <c r="F21" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>Низкая</v>
+      </c>
+      <c r="G21" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>Низкая</v>
+      </c>
+      <c r="H21" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>Низкая</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="59" t="str">
+        <f t="shared" ref="C22:H22" si="9">IF(C11&gt;AVERAGE(C$3:C$11),"Высокая","Низкая")</f>
+        <v>Высокая</v>
+      </c>
+      <c r="D22" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Высокая</v>
+      </c>
+      <c r="E22" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Высокая</v>
+      </c>
+      <c r="F22" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Высокая</v>
+      </c>
+      <c r="G22" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Низкая</v>
+      </c>
+      <c r="H22" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Низкая</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEBFB38-F2E8-4831-8937-AF6E52594482}">
+  <dimension ref="D1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="62" t="str">
+        <f>IF(E2="Легковой", IF(E3="2-х дверный", "Купе", "Седан"), IF(E3="Есть кузов","Пикап","Трейлер") )</f>
+        <v>Пикап</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(E2=E5, IF(E3=E6, D6, D7), IF(E3=E10,D10,D11))</f>
+        <v>Пикап</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AF7E72-A680-45FC-AA2B-A9845DDF6B36}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="62" t="str">
+        <f>IF(E2="Легковой", VLOOKUP(E3, E6:F7, 2, FALSE), VLOOKUP(E3, E10:F11, 2, FALSE) )</f>
+        <v>Седан</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>1</v>
+      </c>
+      <c r="B8" s="43">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>1</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="63">
+        <v>3.919</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
+        <v>2</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="63">
+        <v>3.569</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
+        <v>3</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="63">
+        <v>3.6139999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>4</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="63">
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="63">
+        <v>3.577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
+        <v>6</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="63">
+        <v>3.9329999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
+        <v>7</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="63">
+        <v>3.5419999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
+        <v>8</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="63">
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
+        <v>9</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="63">
+        <v>3.855</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(A2,A10:C18,3,FALSE)</f>
+        <v>3.5089999999999999</v>
       </c>
     </row>
   </sheetData>
